--- a/list_7_r.xlsx
+++ b/list_7_r.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1244,6 +1244,14 @@
         <v>537</v>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B101" t="n">
+        <v>537</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1255,7 +1263,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2067,6 +2075,14 @@
         <v>6011</v>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B101" t="n">
+        <v>5959</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2078,7 +2094,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2890,6 +2906,14 @@
         <v>2653</v>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B101" t="n">
+        <v>2700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2901,7 +2925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3713,6 +3737,14 @@
         <v>1514</v>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1515</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/list_7_r.xlsx
+++ b/list_7_r.xlsx
@@ -454,183 +454,183 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45807</v>
+        <v>45812</v>
       </c>
       <c r="B2" t="n">
-        <v>696</v>
+        <v>749</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45810</v>
+        <v>45813</v>
       </c>
       <c r="B3" t="n">
-        <v>724</v>
+        <v>747</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45812</v>
+        <v>45817</v>
       </c>
       <c r="B4" t="n">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45813</v>
+        <v>45818</v>
       </c>
       <c r="B5" t="n">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45817</v>
+        <v>45819</v>
       </c>
       <c r="B6" t="n">
-        <v>747</v>
+        <v>801</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45818</v>
+        <v>45820</v>
       </c>
       <c r="B7" t="n">
-        <v>745</v>
+        <v>849</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45819</v>
+        <v>45821</v>
       </c>
       <c r="B8" t="n">
-        <v>801</v>
+        <v>833</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45820</v>
+        <v>45824</v>
       </c>
       <c r="B9" t="n">
-        <v>849</v>
+        <v>833</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45821</v>
+        <v>45825</v>
       </c>
       <c r="B10" t="n">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45824</v>
+        <v>45826</v>
       </c>
       <c r="B11" t="n">
-        <v>833</v>
+        <v>823</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45825</v>
+        <v>45827</v>
       </c>
       <c r="B12" t="n">
-        <v>832</v>
+        <v>806</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45826</v>
+        <v>45828</v>
       </c>
       <c r="B13" t="n">
-        <v>823</v>
+        <v>777</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45827</v>
+        <v>45831</v>
       </c>
       <c r="B14" t="n">
-        <v>806</v>
+        <v>781</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45828</v>
+        <v>45832</v>
       </c>
       <c r="B15" t="n">
-        <v>777</v>
+        <v>801</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45831</v>
+        <v>45833</v>
       </c>
       <c r="B16" t="n">
-        <v>781</v>
+        <v>786</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45832</v>
+        <v>45834</v>
       </c>
       <c r="B17" t="n">
-        <v>801</v>
+        <v>650</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45833</v>
+        <v>45835</v>
       </c>
       <c r="B18" t="n">
-        <v>786</v>
+        <v>616</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45834</v>
+        <v>45838</v>
       </c>
       <c r="B19" t="n">
-        <v>650</v>
+        <v>611</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45835</v>
+        <v>45839</v>
       </c>
       <c r="B20" t="n">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45838</v>
+        <v>45840</v>
       </c>
       <c r="B21" t="n">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45839</v>
+        <v>45841</v>
       </c>
       <c r="B22" t="n">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45840</v>
+        <v>45842</v>
       </c>
       <c r="B23" t="n">
-        <v>609</v>
+        <v>618</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45841</v>
+        <v>45845</v>
       </c>
       <c r="B24" t="n">
         <v>615</v>
@@ -638,127 +638,127 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45842</v>
+        <v>45846</v>
       </c>
       <c r="B25" t="n">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B26" t="n">
-        <v>615</v>
+        <v>622</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B27" t="n">
-        <v>615</v>
+        <v>622</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B28" t="n">
-        <v>622</v>
+        <v>773</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45848</v>
+        <v>45852</v>
       </c>
       <c r="B29" t="n">
-        <v>622</v>
+        <v>780</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45849</v>
+        <v>45853</v>
       </c>
       <c r="B30" t="n">
-        <v>773</v>
+        <v>780</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B31" t="n">
-        <v>780</v>
+        <v>776</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B32" t="n">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45854</v>
+        <v>45856</v>
       </c>
       <c r="B33" t="n">
-        <v>776</v>
+        <v>623</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45855</v>
+        <v>45859</v>
       </c>
       <c r="B34" t="n">
-        <v>778</v>
+        <v>622</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45856</v>
+        <v>45860</v>
       </c>
       <c r="B35" t="n">
-        <v>623</v>
+        <v>631</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="B36" t="n">
-        <v>622</v>
+        <v>632</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45860</v>
+        <v>45862</v>
       </c>
       <c r="B37" t="n">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B38" t="n">
-        <v>632</v>
+        <v>627</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45862</v>
+        <v>45866</v>
       </c>
       <c r="B39" t="n">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45863</v>
+        <v>45867</v>
       </c>
       <c r="B40" t="n">
         <v>627</v>
@@ -766,239 +766,239 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45866</v>
+        <v>45868</v>
       </c>
       <c r="B41" t="n">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45867</v>
+        <v>45869</v>
       </c>
       <c r="B42" t="n">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45868</v>
+        <v>45870</v>
       </c>
       <c r="B43" t="n">
-        <v>629</v>
+        <v>613</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45869</v>
+        <v>45873</v>
       </c>
       <c r="B44" t="n">
-        <v>630</v>
+        <v>610</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45870</v>
+        <v>45874</v>
       </c>
       <c r="B45" t="n">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45873</v>
+        <v>45875</v>
       </c>
       <c r="B46" t="n">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45874</v>
+        <v>45876</v>
       </c>
       <c r="B47" t="n">
-        <v>611</v>
+        <v>603</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45875</v>
+        <v>45877</v>
       </c>
       <c r="B48" t="n">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45876</v>
+        <v>45880</v>
       </c>
       <c r="B49" t="n">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45877</v>
+        <v>45881</v>
       </c>
       <c r="B50" t="n">
-        <v>612</v>
+        <v>589</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45880</v>
+        <v>45882</v>
       </c>
       <c r="B51" t="n">
-        <v>605</v>
+        <v>616</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45881</v>
+        <v>45883</v>
       </c>
       <c r="B52" t="n">
-        <v>589</v>
+        <v>618</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45882</v>
+        <v>45887</v>
       </c>
       <c r="B53" t="n">
-        <v>616</v>
+        <v>650</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45883</v>
+        <v>45888</v>
       </c>
       <c r="B54" t="n">
-        <v>618</v>
+        <v>573</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="B55" t="n">
-        <v>650</v>
+        <v>573</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="B56" t="n">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="B57" t="n">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45890</v>
+        <v>45894</v>
       </c>
       <c r="B58" t="n">
-        <v>574</v>
+        <v>786</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45891</v>
+        <v>45895</v>
       </c>
       <c r="B59" t="n">
-        <v>576</v>
+        <v>842</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="B60" t="n">
-        <v>786</v>
+        <v>840</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="B61" t="n">
-        <v>842</v>
+        <v>838</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="B62" t="n">
-        <v>840</v>
+        <v>960</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45897</v>
+        <v>45901</v>
       </c>
       <c r="B63" t="n">
-        <v>838</v>
+        <v>751</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45898</v>
+        <v>45902</v>
       </c>
       <c r="B64" t="n">
-        <v>960</v>
+        <v>791</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="B65" t="n">
-        <v>751</v>
+        <v>794</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="B66" t="n">
-        <v>791</v>
+        <v>798</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="B67" t="n">
-        <v>794</v>
+        <v>667</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45904</v>
+        <v>45908</v>
       </c>
       <c r="B68" t="n">
-        <v>798</v>
+        <v>653</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45905</v>
+        <v>45909</v>
       </c>
       <c r="B69" t="n">
-        <v>667</v>
+        <v>657</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="B70" t="n">
         <v>653</v>
@@ -1006,79 +1006,79 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="B71" t="n">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="B72" t="n">
-        <v>653</v>
+        <v>682</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45911</v>
+        <v>45915</v>
       </c>
       <c r="B73" t="n">
-        <v>653</v>
+        <v>685</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45912</v>
+        <v>45916</v>
       </c>
       <c r="B74" t="n">
-        <v>682</v>
+        <v>690</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="B75" t="n">
-        <v>685</v>
+        <v>692</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="B76" t="n">
-        <v>690</v>
+        <v>705</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45917</v>
+        <v>45919</v>
       </c>
       <c r="B77" t="n">
-        <v>692</v>
+        <v>705</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45918</v>
+        <v>45922</v>
       </c>
       <c r="B78" t="n">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45919</v>
+        <v>45923</v>
       </c>
       <c r="B79" t="n">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="B80" t="n">
         <v>702</v>
@@ -1086,79 +1086,79 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45923</v>
+        <v>45925</v>
       </c>
       <c r="B81" t="n">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45924</v>
+        <v>45926</v>
       </c>
       <c r="B82" t="n">
-        <v>702</v>
+        <v>681</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45925</v>
+        <v>45929</v>
       </c>
       <c r="B83" t="n">
-        <v>702</v>
+        <v>682</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="B84" t="n">
-        <v>681</v>
+        <v>675</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45929</v>
+        <v>45931</v>
       </c>
       <c r="B85" t="n">
-        <v>682</v>
+        <v>673</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45930</v>
+        <v>45932</v>
       </c>
       <c r="B86" t="n">
-        <v>675</v>
+        <v>670</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45931</v>
+        <v>45940</v>
       </c>
       <c r="B87" t="n">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45932</v>
+        <v>45943</v>
       </c>
       <c r="B88" t="n">
-        <v>670</v>
+        <v>544</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45940</v>
+        <v>45944</v>
       </c>
       <c r="B89" t="n">
-        <v>670</v>
+        <v>543</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45943</v>
+        <v>45945</v>
       </c>
       <c r="B90" t="n">
         <v>544</v>
@@ -1166,90 +1166,90 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45944</v>
+        <v>45946</v>
       </c>
       <c r="B91" t="n">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45945</v>
+        <v>45947</v>
       </c>
       <c r="B92" t="n">
-        <v>544</v>
+        <v>533</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45946</v>
+        <v>45950</v>
       </c>
       <c r="B93" t="n">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45947</v>
+        <v>45951</v>
       </c>
       <c r="B94" t="n">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45950</v>
+        <v>45952</v>
       </c>
       <c r="B95" t="n">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45951</v>
+        <v>45953</v>
       </c>
       <c r="B96" t="n">
-        <v>530</v>
+        <v>540</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45952</v>
+        <v>45954</v>
       </c>
       <c r="B97" t="n">
-        <v>534</v>
+        <v>540</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45953</v>
+        <v>45957</v>
       </c>
       <c r="B98" t="n">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45954</v>
+        <v>45958</v>
       </c>
       <c r="B99" t="n">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B100" t="n">
-        <v>537</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45958</v>
+        <v>45960</v>
       </c>
       <c r="B101" t="n">
-        <v>537</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1285,802 +1285,802 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45807</v>
+        <v>45812</v>
       </c>
       <c r="B2" t="n">
-        <v>5865</v>
+        <v>5689</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45810</v>
+        <v>45813</v>
       </c>
       <c r="B3" t="n">
-        <v>5924</v>
+        <v>5673</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45812</v>
+        <v>45817</v>
       </c>
       <c r="B4" t="n">
-        <v>5689</v>
+        <v>5848</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45813</v>
+        <v>45818</v>
       </c>
       <c r="B5" t="n">
-        <v>5673</v>
+        <v>6091</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45817</v>
+        <v>45819</v>
       </c>
       <c r="B6" t="n">
-        <v>5848</v>
+        <v>6305</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45818</v>
+        <v>45820</v>
       </c>
       <c r="B7" t="n">
-        <v>6091</v>
+        <v>6313</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45819</v>
+        <v>45821</v>
       </c>
       <c r="B8" t="n">
-        <v>6305</v>
+        <v>6133</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45820</v>
+        <v>45824</v>
       </c>
       <c r="B9" t="n">
-        <v>6313</v>
+        <v>6265</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45821</v>
+        <v>45825</v>
       </c>
       <c r="B10" t="n">
-        <v>6133</v>
+        <v>6333</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45824</v>
+        <v>45826</v>
       </c>
       <c r="B11" t="n">
-        <v>6265</v>
+        <v>6464</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45825</v>
+        <v>45827</v>
       </c>
       <c r="B12" t="n">
-        <v>6333</v>
+        <v>6538</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45826</v>
+        <v>45828</v>
       </c>
       <c r="B13" t="n">
-        <v>6464</v>
+        <v>6521</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45827</v>
+        <v>45831</v>
       </c>
       <c r="B14" t="n">
-        <v>6538</v>
+        <v>6453</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45828</v>
+        <v>45832</v>
       </c>
       <c r="B15" t="n">
-        <v>6521</v>
+        <v>6831</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45831</v>
+        <v>45833</v>
       </c>
       <c r="B16" t="n">
-        <v>6453</v>
+        <v>6684</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45832</v>
+        <v>45834</v>
       </c>
       <c r="B17" t="n">
-        <v>6831</v>
+        <v>5237</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45833</v>
+        <v>45835</v>
       </c>
       <c r="B18" t="n">
-        <v>6684</v>
+        <v>5150</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45834</v>
+        <v>45838</v>
       </c>
       <c r="B19" t="n">
-        <v>5237</v>
+        <v>5082</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45835</v>
+        <v>45839</v>
       </c>
       <c r="B20" t="n">
-        <v>5150</v>
+        <v>5334</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45838</v>
+        <v>45840</v>
       </c>
       <c r="B21" t="n">
-        <v>5082</v>
+        <v>4957</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45839</v>
+        <v>45841</v>
       </c>
       <c r="B22" t="n">
-        <v>5334</v>
+        <v>4971</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45840</v>
+        <v>45842</v>
       </c>
       <c r="B23" t="n">
-        <v>4957</v>
+        <v>4883</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45841</v>
+        <v>45845</v>
       </c>
       <c r="B24" t="n">
-        <v>4971</v>
+        <v>4924</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45842</v>
+        <v>45846</v>
       </c>
       <c r="B25" t="n">
-        <v>4883</v>
+        <v>5033</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B26" t="n">
-        <v>4924</v>
+        <v>5101</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B27" t="n">
-        <v>5033</v>
+        <v>5370</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B28" t="n">
-        <v>5101</v>
+        <v>5384</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45848</v>
+        <v>45852</v>
       </c>
       <c r="B29" t="n">
-        <v>5370</v>
+        <v>5184</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45849</v>
+        <v>45853</v>
       </c>
       <c r="B30" t="n">
-        <v>5384</v>
+        <v>5210</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B31" t="n">
-        <v>5184</v>
+        <v>5161</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B32" t="n">
-        <v>5210</v>
+        <v>5147</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45854</v>
+        <v>45856</v>
       </c>
       <c r="B33" t="n">
-        <v>5161</v>
+        <v>5109</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45855</v>
+        <v>45859</v>
       </c>
       <c r="B34" t="n">
-        <v>5147</v>
+        <v>5061</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45856</v>
+        <v>45860</v>
       </c>
       <c r="B35" t="n">
-        <v>5109</v>
+        <v>4980</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="B36" t="n">
-        <v>5061</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45860</v>
+        <v>45862</v>
       </c>
       <c r="B37" t="n">
-        <v>4980</v>
+        <v>4806</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B38" t="n">
-        <v>4912</v>
+        <v>4881</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45862</v>
+        <v>45866</v>
       </c>
       <c r="B39" t="n">
-        <v>4806</v>
+        <v>4779</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45863</v>
+        <v>45867</v>
       </c>
       <c r="B40" t="n">
-        <v>4881</v>
+        <v>4723</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45866</v>
+        <v>45868</v>
       </c>
       <c r="B41" t="n">
-        <v>4779</v>
+        <v>4689</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45867</v>
+        <v>45869</v>
       </c>
       <c r="B42" t="n">
-        <v>4723</v>
+        <v>4642</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45868</v>
+        <v>45870</v>
       </c>
       <c r="B43" t="n">
-        <v>4689</v>
+        <v>4454</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45869</v>
+        <v>45873</v>
       </c>
       <c r="B44" t="n">
-        <v>4642</v>
+        <v>4568</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45870</v>
+        <v>45874</v>
       </c>
       <c r="B45" t="n">
-        <v>4454</v>
+        <v>4568</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45873</v>
+        <v>45875</v>
       </c>
       <c r="B46" t="n">
-        <v>4568</v>
+        <v>4798</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45874</v>
+        <v>45876</v>
       </c>
       <c r="B47" t="n">
-        <v>4568</v>
+        <v>4826</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45875</v>
+        <v>45877</v>
       </c>
       <c r="B48" t="n">
-        <v>4798</v>
+        <v>4847</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45876</v>
+        <v>45880</v>
       </c>
       <c r="B49" t="n">
-        <v>4826</v>
+        <v>4812</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45877</v>
+        <v>45881</v>
       </c>
       <c r="B50" t="n">
-        <v>4847</v>
+        <v>4756</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45880</v>
+        <v>45882</v>
       </c>
       <c r="B51" t="n">
-        <v>4812</v>
+        <v>4756</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45881</v>
+        <v>45883</v>
       </c>
       <c r="B52" t="n">
-        <v>4756</v>
+        <v>4742</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45882</v>
+        <v>45887</v>
       </c>
       <c r="B53" t="n">
-        <v>4756</v>
+        <v>4713</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45883</v>
+        <v>45888</v>
       </c>
       <c r="B54" t="n">
-        <v>4742</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="B55" t="n">
-        <v>4713</v>
+        <v>4566</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="B56" t="n">
-        <v>4650</v>
+        <v>4565</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="B57" t="n">
-        <v>4566</v>
+        <v>4586</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45890</v>
+        <v>45894</v>
       </c>
       <c r="B58" t="n">
-        <v>4565</v>
+        <v>4770</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45891</v>
+        <v>45895</v>
       </c>
       <c r="B59" t="n">
-        <v>4586</v>
+        <v>4763</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="B60" t="n">
-        <v>4770</v>
+        <v>4756</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="B61" t="n">
-        <v>4763</v>
+        <v>4743</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="B62" t="n">
-        <v>4756</v>
+        <v>4708</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45897</v>
+        <v>45901</v>
       </c>
       <c r="B63" t="n">
-        <v>4743</v>
+        <v>4593</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45898</v>
+        <v>45902</v>
       </c>
       <c r="B64" t="n">
-        <v>4708</v>
+        <v>4607</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="B65" t="n">
-        <v>4593</v>
+        <v>4643</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="B66" t="n">
-        <v>4607</v>
+        <v>4706</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="B67" t="n">
-        <v>4643</v>
+        <v>4724</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45904</v>
+        <v>45908</v>
       </c>
       <c r="B68" t="n">
-        <v>4706</v>
+        <v>4722</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45905</v>
+        <v>45909</v>
       </c>
       <c r="B69" t="n">
-        <v>4724</v>
+        <v>4744</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="B70" t="n">
-        <v>4722</v>
+        <v>4852</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="B71" t="n">
-        <v>4744</v>
+        <v>4850</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="B72" t="n">
-        <v>4852</v>
+        <v>5015</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45911</v>
+        <v>45915</v>
       </c>
       <c r="B73" t="n">
-        <v>4850</v>
+        <v>5079</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45912</v>
+        <v>45916</v>
       </c>
       <c r="B74" t="n">
-        <v>5015</v>
+        <v>5020</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="B75" t="n">
-        <v>5079</v>
+        <v>5005</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="B76" t="n">
-        <v>5020</v>
+        <v>5234</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45917</v>
+        <v>45919</v>
       </c>
       <c r="B77" t="n">
-        <v>5005</v>
+        <v>5308</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45918</v>
+        <v>45922</v>
       </c>
       <c r="B78" t="n">
-        <v>5234</v>
+        <v>5308</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45919</v>
+        <v>45923</v>
       </c>
       <c r="B79" t="n">
-        <v>5308</v>
+        <v>5257</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="B80" t="n">
-        <v>5308</v>
+        <v>5034</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45923</v>
+        <v>45925</v>
       </c>
       <c r="B81" t="n">
-        <v>5257</v>
+        <v>5062</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45924</v>
+        <v>45926</v>
       </c>
       <c r="B82" t="n">
-        <v>5034</v>
+        <v>4558</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45925</v>
+        <v>45929</v>
       </c>
       <c r="B83" t="n">
-        <v>5062</v>
+        <v>4619</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="B84" t="n">
-        <v>4558</v>
+        <v>4547</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45929</v>
+        <v>45931</v>
       </c>
       <c r="B85" t="n">
-        <v>4619</v>
+        <v>4447</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45930</v>
+        <v>45932</v>
       </c>
       <c r="B86" t="n">
-        <v>4547</v>
+        <v>4453</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45931</v>
+        <v>45940</v>
       </c>
       <c r="B87" t="n">
-        <v>4447</v>
+        <v>4526</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45932</v>
+        <v>45943</v>
       </c>
       <c r="B88" t="n">
-        <v>4453</v>
+        <v>4447</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45940</v>
+        <v>45944</v>
       </c>
       <c r="B89" t="n">
-        <v>4526</v>
+        <v>4635</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45943</v>
+        <v>45945</v>
       </c>
       <c r="B90" t="n">
-        <v>4447</v>
+        <v>4843</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45944</v>
+        <v>45946</v>
       </c>
       <c r="B91" t="n">
-        <v>4635</v>
+        <v>4741</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45945</v>
+        <v>45947</v>
       </c>
       <c r="B92" t="n">
-        <v>4843</v>
+        <v>4571</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45946</v>
+        <v>45950</v>
       </c>
       <c r="B93" t="n">
-        <v>4741</v>
+        <v>4632</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45947</v>
+        <v>45951</v>
       </c>
       <c r="B94" t="n">
-        <v>4571</v>
+        <v>5649</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45950</v>
+        <v>45952</v>
       </c>
       <c r="B95" t="n">
-        <v>4632</v>
+        <v>5825</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45951</v>
+        <v>45953</v>
       </c>
       <c r="B96" t="n">
-        <v>5649</v>
+        <v>6014</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45952</v>
+        <v>45954</v>
       </c>
       <c r="B97" t="n">
-        <v>5825</v>
+        <v>5942</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45953</v>
+        <v>45957</v>
       </c>
       <c r="B98" t="n">
-        <v>6014</v>
+        <v>6011</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45954</v>
+        <v>45958</v>
       </c>
       <c r="B99" t="n">
-        <v>5942</v>
+        <v>5959</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B100" t="n">
-        <v>6011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45958</v>
+        <v>45960</v>
       </c>
       <c r="B101" t="n">
-        <v>5959</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2116,679 +2116,679 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45807</v>
+        <v>45812</v>
       </c>
       <c r="B2" t="n">
-        <v>3109</v>
+        <v>3317</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45810</v>
+        <v>45813</v>
       </c>
       <c r="B3" t="n">
-        <v>3163</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45812</v>
+        <v>45817</v>
       </c>
       <c r="B4" t="n">
-        <v>3317</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45813</v>
+        <v>45818</v>
       </c>
       <c r="B5" t="n">
-        <v>3200</v>
+        <v>3449</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45817</v>
+        <v>45819</v>
       </c>
       <c r="B6" t="n">
-        <v>3445</v>
+        <v>4261</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45818</v>
+        <v>45820</v>
       </c>
       <c r="B7" t="n">
-        <v>3449</v>
+        <v>4369</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45819</v>
+        <v>45821</v>
       </c>
       <c r="B8" t="n">
-        <v>4261</v>
+        <v>4281</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45820</v>
+        <v>45824</v>
       </c>
       <c r="B9" t="n">
-        <v>4369</v>
+        <v>4383</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45821</v>
+        <v>45825</v>
       </c>
       <c r="B10" t="n">
-        <v>4281</v>
+        <v>4275</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45824</v>
+        <v>45826</v>
       </c>
       <c r="B11" t="n">
-        <v>4383</v>
+        <v>4253</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45825</v>
+        <v>45827</v>
       </c>
       <c r="B12" t="n">
-        <v>4275</v>
+        <v>4745</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45826</v>
+        <v>45828</v>
       </c>
       <c r="B13" t="n">
-        <v>4253</v>
+        <v>4091</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45827</v>
+        <v>45831</v>
       </c>
       <c r="B14" t="n">
-        <v>4745</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45828</v>
+        <v>45832</v>
       </c>
       <c r="B15" t="n">
-        <v>4091</v>
+        <v>3970</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45831</v>
+        <v>45833</v>
       </c>
       <c r="B16" t="n">
-        <v>3929</v>
+        <v>3914</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45832</v>
+        <v>45834</v>
       </c>
       <c r="B17" t="n">
-        <v>3970</v>
+        <v>3731</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45833</v>
+        <v>45835</v>
       </c>
       <c r="B18" t="n">
-        <v>3914</v>
+        <v>3731</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45834</v>
+        <v>45838</v>
       </c>
       <c r="B19" t="n">
-        <v>3731</v>
+        <v>4171</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45835</v>
+        <v>45839</v>
       </c>
       <c r="B20" t="n">
-        <v>3731</v>
+        <v>4207</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45838</v>
+        <v>45840</v>
       </c>
       <c r="B21" t="n">
-        <v>4171</v>
+        <v>4072</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45839</v>
+        <v>45841</v>
       </c>
       <c r="B22" t="n">
-        <v>4207</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45840</v>
+        <v>45842</v>
       </c>
       <c r="B23" t="n">
-        <v>4072</v>
+        <v>4093</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45841</v>
+        <v>45845</v>
       </c>
       <c r="B24" t="n">
-        <v>4360</v>
+        <v>4405</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45842</v>
+        <v>45846</v>
       </c>
       <c r="B25" t="n">
-        <v>4093</v>
+        <v>5009</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B26" t="n">
-        <v>4405</v>
+        <v>4875</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B27" t="n">
-        <v>5009</v>
+        <v>4661</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B28" t="n">
-        <v>4875</v>
+        <v>4706</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45848</v>
+        <v>45852</v>
       </c>
       <c r="B29" t="n">
-        <v>4661</v>
+        <v>4598</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45849</v>
+        <v>45853</v>
       </c>
       <c r="B30" t="n">
-        <v>4706</v>
+        <v>4617</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B31" t="n">
-        <v>4598</v>
+        <v>4576</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B32" t="n">
-        <v>4617</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45854</v>
+        <v>45856</v>
       </c>
       <c r="B33" t="n">
-        <v>4576</v>
+        <v>4554</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45855</v>
+        <v>45859</v>
       </c>
       <c r="B34" t="n">
-        <v>4507</v>
+        <v>4607</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45856</v>
+        <v>45860</v>
       </c>
       <c r="B35" t="n">
-        <v>4554</v>
+        <v>4503</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="B36" t="n">
-        <v>4607</v>
+        <v>4435</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45860</v>
+        <v>45862</v>
       </c>
       <c r="B37" t="n">
-        <v>4503</v>
+        <v>4335</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B38" t="n">
-        <v>4435</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45862</v>
+        <v>45866</v>
       </c>
       <c r="B39" t="n">
-        <v>4335</v>
+        <v>4182</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45863</v>
+        <v>45867</v>
       </c>
       <c r="B40" t="n">
-        <v>4340</v>
+        <v>4151</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45866</v>
+        <v>45868</v>
       </c>
       <c r="B41" t="n">
-        <v>4182</v>
+        <v>4102</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45867</v>
+        <v>45869</v>
       </c>
       <c r="B42" t="n">
-        <v>4151</v>
+        <v>4268</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45868</v>
+        <v>45870</v>
       </c>
       <c r="B43" t="n">
-        <v>4102</v>
+        <v>4101</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45869</v>
+        <v>45873</v>
       </c>
       <c r="B44" t="n">
-        <v>4268</v>
+        <v>4239</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45870</v>
+        <v>45874</v>
       </c>
       <c r="B45" t="n">
-        <v>4101</v>
+        <v>4203</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45873</v>
+        <v>45875</v>
       </c>
       <c r="B46" t="n">
-        <v>4239</v>
+        <v>4220</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45874</v>
+        <v>45876</v>
       </c>
       <c r="B47" t="n">
-        <v>4203</v>
+        <v>4311</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45875</v>
+        <v>45877</v>
       </c>
       <c r="B48" t="n">
-        <v>4220</v>
+        <v>4245</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45876</v>
+        <v>45880</v>
       </c>
       <c r="B49" t="n">
-        <v>4311</v>
+        <v>4206</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45877</v>
+        <v>45881</v>
       </c>
       <c r="B50" t="n">
-        <v>4245</v>
+        <v>3944</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45880</v>
+        <v>45882</v>
       </c>
       <c r="B51" t="n">
-        <v>4206</v>
+        <v>3957</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45881</v>
+        <v>45883</v>
       </c>
       <c r="B52" t="n">
-        <v>3944</v>
+        <v>3925</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45882</v>
+        <v>45887</v>
       </c>
       <c r="B53" t="n">
-        <v>3957</v>
+        <v>3795</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45883</v>
+        <v>45888</v>
       </c>
       <c r="B54" t="n">
-        <v>3925</v>
+        <v>3844</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="B55" t="n">
-        <v>3795</v>
+        <v>3838</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="B56" t="n">
-        <v>3844</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="B57" t="n">
-        <v>3838</v>
+        <v>3756</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45890</v>
+        <v>45894</v>
       </c>
       <c r="B58" t="n">
-        <v>3810</v>
+        <v>3773</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45891</v>
+        <v>45895</v>
       </c>
       <c r="B59" t="n">
-        <v>3756</v>
+        <v>3696</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="B60" t="n">
-        <v>3773</v>
+        <v>3567</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="B61" t="n">
-        <v>3696</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="B62" t="n">
-        <v>3567</v>
+        <v>3437</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45897</v>
+        <v>45901</v>
       </c>
       <c r="B63" t="n">
-        <v>3480</v>
+        <v>3271</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45898</v>
+        <v>45902</v>
       </c>
       <c r="B64" t="n">
-        <v>3437</v>
+        <v>3245</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="B65" t="n">
-        <v>3271</v>
+        <v>3209</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="B66" t="n">
-        <v>3245</v>
+        <v>3251</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="B67" t="n">
-        <v>3209</v>
+        <v>3227</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45904</v>
+        <v>45908</v>
       </c>
       <c r="B68" t="n">
-        <v>3251</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45905</v>
+        <v>45909</v>
       </c>
       <c r="B69" t="n">
-        <v>3227</v>
+        <v>3296</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="B70" t="n">
-        <v>3242</v>
+        <v>3336</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="B71" t="n">
-        <v>3296</v>
+        <v>3336</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="B72" t="n">
-        <v>3336</v>
+        <v>3374</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45911</v>
+        <v>45915</v>
       </c>
       <c r="B73" t="n">
-        <v>3336</v>
+        <v>3371</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45912</v>
+        <v>45916</v>
       </c>
       <c r="B74" t="n">
-        <v>3374</v>
+        <v>3383</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="B75" t="n">
-        <v>3371</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="B76" t="n">
-        <v>3383</v>
+        <v>3352</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45917</v>
+        <v>45919</v>
       </c>
       <c r="B77" t="n">
-        <v>3360</v>
+        <v>3340</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45918</v>
+        <v>45922</v>
       </c>
       <c r="B78" t="n">
-        <v>3352</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45919</v>
+        <v>45923</v>
       </c>
       <c r="B79" t="n">
-        <v>3340</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="B80" t="n">
-        <v>3061</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45923</v>
+        <v>45925</v>
       </c>
       <c r="B81" t="n">
-        <v>2643</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45924</v>
+        <v>45926</v>
       </c>
       <c r="B82" t="n">
-        <v>2634</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45925</v>
+        <v>45929</v>
       </c>
       <c r="B83" t="n">
-        <v>2734</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="B84" t="n">
-        <v>2490</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45929</v>
+        <v>45931</v>
       </c>
       <c r="B85" t="n">
-        <v>2518</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45930</v>
+        <v>45932</v>
       </c>
       <c r="B86" t="n">
         <v>2504</v>
@@ -2796,122 +2796,122 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45931</v>
+        <v>45940</v>
       </c>
       <c r="B87" t="n">
-        <v>2504</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45932</v>
+        <v>45943</v>
       </c>
       <c r="B88" t="n">
-        <v>2504</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45940</v>
+        <v>45944</v>
       </c>
       <c r="B89" t="n">
-        <v>2564</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45943</v>
+        <v>45945</v>
       </c>
       <c r="B90" t="n">
-        <v>2511</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45944</v>
+        <v>45946</v>
       </c>
       <c r="B91" t="n">
-        <v>2519</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45945</v>
+        <v>45947</v>
       </c>
       <c r="B92" t="n">
-        <v>2588</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45946</v>
+        <v>45950</v>
       </c>
       <c r="B93" t="n">
-        <v>2560</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45947</v>
+        <v>45951</v>
       </c>
       <c r="B94" t="n">
-        <v>2499</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45950</v>
+        <v>45952</v>
       </c>
       <c r="B95" t="n">
-        <v>2413</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45951</v>
+        <v>45953</v>
       </c>
       <c r="B96" t="n">
-        <v>2371</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45952</v>
+        <v>45954</v>
       </c>
       <c r="B97" t="n">
-        <v>2693</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45953</v>
+        <v>45957</v>
       </c>
       <c r="B98" t="n">
-        <v>2646</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45954</v>
+        <v>45958</v>
       </c>
       <c r="B99" t="n">
-        <v>2612</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B100" t="n">
-        <v>2653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45958</v>
+        <v>45960</v>
       </c>
       <c r="B101" t="n">
-        <v>2700</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2947,383 +2947,383 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45807</v>
+        <v>45812</v>
       </c>
       <c r="B2" t="n">
-        <v>994</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45810</v>
+        <v>45813</v>
       </c>
       <c r="B3" t="n">
-        <v>990</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45812</v>
+        <v>45817</v>
       </c>
       <c r="B4" t="n">
-        <v>1056</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45813</v>
+        <v>45818</v>
       </c>
       <c r="B5" t="n">
-        <v>1047</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45817</v>
+        <v>45819</v>
       </c>
       <c r="B6" t="n">
-        <v>1045</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45818</v>
+        <v>45820</v>
       </c>
       <c r="B7" t="n">
-        <v>1043</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45819</v>
+        <v>45821</v>
       </c>
       <c r="B8" t="n">
-        <v>1206</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45820</v>
+        <v>45824</v>
       </c>
       <c r="B9" t="n">
-        <v>1273</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45821</v>
+        <v>45825</v>
       </c>
       <c r="B10" t="n">
-        <v>1248</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45824</v>
+        <v>45826</v>
       </c>
       <c r="B11" t="n">
-        <v>1258</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45825</v>
+        <v>45827</v>
       </c>
       <c r="B12" t="n">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45826</v>
+        <v>45828</v>
       </c>
       <c r="B13" t="n">
-        <v>1270</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45827</v>
+        <v>45831</v>
       </c>
       <c r="B14" t="n">
-        <v>1260</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45828</v>
+        <v>45832</v>
       </c>
       <c r="B15" t="n">
-        <v>1262</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45831</v>
+        <v>45833</v>
       </c>
       <c r="B16" t="n">
-        <v>1246</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45832</v>
+        <v>45834</v>
       </c>
       <c r="B17" t="n">
-        <v>1290</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45833</v>
+        <v>45835</v>
       </c>
       <c r="B18" t="n">
-        <v>1290</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45834</v>
+        <v>45838</v>
       </c>
       <c r="B19" t="n">
-        <v>1252</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45835</v>
+        <v>45839</v>
       </c>
       <c r="B20" t="n">
-        <v>1245</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45838</v>
+        <v>45840</v>
       </c>
       <c r="B21" t="n">
-        <v>1244</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45839</v>
+        <v>45841</v>
       </c>
       <c r="B22" t="n">
-        <v>1268</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45840</v>
+        <v>45842</v>
       </c>
       <c r="B23" t="n">
-        <v>1260</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45841</v>
+        <v>45845</v>
       </c>
       <c r="B24" t="n">
-        <v>1282</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45842</v>
+        <v>45846</v>
       </c>
       <c r="B25" t="n">
-        <v>1261</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B26" t="n">
-        <v>1223</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B27" t="n">
-        <v>1239</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B28" t="n">
-        <v>1240</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45848</v>
+        <v>45852</v>
       </c>
       <c r="B29" t="n">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45849</v>
+        <v>45853</v>
       </c>
       <c r="B30" t="n">
-        <v>1231</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B31" t="n">
-        <v>1227</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B32" t="n">
-        <v>1224</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45854</v>
+        <v>45856</v>
       </c>
       <c r="B33" t="n">
-        <v>1211</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45855</v>
+        <v>45859</v>
       </c>
       <c r="B34" t="n">
-        <v>1237</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45856</v>
+        <v>45860</v>
       </c>
       <c r="B35" t="n">
-        <v>1275</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="B36" t="n">
-        <v>1274</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45860</v>
+        <v>45862</v>
       </c>
       <c r="B37" t="n">
-        <v>1258</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B38" t="n">
-        <v>1257</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45862</v>
+        <v>45866</v>
       </c>
       <c r="B39" t="n">
-        <v>1247</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45863</v>
+        <v>45867</v>
       </c>
       <c r="B40" t="n">
-        <v>1236</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45866</v>
+        <v>45868</v>
       </c>
       <c r="B41" t="n">
-        <v>1198</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45867</v>
+        <v>45869</v>
       </c>
       <c r="B42" t="n">
-        <v>1201</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45868</v>
+        <v>45870</v>
       </c>
       <c r="B43" t="n">
-        <v>1218</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45869</v>
+        <v>45873</v>
       </c>
       <c r="B44" t="n">
-        <v>1219</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45870</v>
+        <v>45874</v>
       </c>
       <c r="B45" t="n">
-        <v>1155</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45873</v>
+        <v>45875</v>
       </c>
       <c r="B46" t="n">
-        <v>1169</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45874</v>
+        <v>45876</v>
       </c>
       <c r="B47" t="n">
-        <v>1182</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45875</v>
+        <v>45877</v>
       </c>
       <c r="B48" t="n">
-        <v>1172</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45876</v>
+        <v>45880</v>
       </c>
       <c r="B49" t="n">
         <v>1173</v>
@@ -3331,87 +3331,87 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45877</v>
+        <v>45881</v>
       </c>
       <c r="B50" t="n">
-        <v>1190</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45880</v>
+        <v>45882</v>
       </c>
       <c r="B51" t="n">
-        <v>1173</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45881</v>
+        <v>45883</v>
       </c>
       <c r="B52" t="n">
-        <v>1166</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45882</v>
+        <v>45887</v>
       </c>
       <c r="B53" t="n">
-        <v>1178</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45883</v>
+        <v>45888</v>
       </c>
       <c r="B54" t="n">
-        <v>1177</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="B55" t="n">
-        <v>1127</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="B56" t="n">
-        <v>1125</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="B57" t="n">
-        <v>1108</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45890</v>
+        <v>45894</v>
       </c>
       <c r="B58" t="n">
-        <v>1109</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45891</v>
+        <v>45895</v>
       </c>
       <c r="B59" t="n">
-        <v>1109</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="B60" t="n">
         <v>1124</v>
@@ -3419,330 +3419,330 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="B61" t="n">
-        <v>1123</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="B62" t="n">
-        <v>1124</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45897</v>
+        <v>45901</v>
       </c>
       <c r="B63" t="n">
-        <v>1091</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45898</v>
+        <v>45902</v>
       </c>
       <c r="B64" t="n">
-        <v>1092</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="B65" t="n">
-        <v>1065</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="B66" t="n">
-        <v>1109</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="B67" t="n">
-        <v>1122</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45904</v>
+        <v>45908</v>
       </c>
       <c r="B68" t="n">
-        <v>1128</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45905</v>
+        <v>45909</v>
       </c>
       <c r="B69" t="n">
-        <v>1136</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="B70" t="n">
-        <v>1141</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="B71" t="n">
-        <v>1133</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="B72" t="n">
-        <v>1164</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45911</v>
+        <v>45915</v>
       </c>
       <c r="B73" t="n">
-        <v>1165</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45912</v>
+        <v>45916</v>
       </c>
       <c r="B74" t="n">
-        <v>1173</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="B75" t="n">
-        <v>1160</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="B76" t="n">
-        <v>1148</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45917</v>
+        <v>45919</v>
       </c>
       <c r="B77" t="n">
-        <v>1132</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45918</v>
+        <v>45922</v>
       </c>
       <c r="B78" t="n">
-        <v>1150</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45919</v>
+        <v>45923</v>
       </c>
       <c r="B79" t="n">
-        <v>1149</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="B80" t="n">
-        <v>1152</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45923</v>
+        <v>45925</v>
       </c>
       <c r="B81" t="n">
-        <v>1144</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45924</v>
+        <v>45926</v>
       </c>
       <c r="B82" t="n">
-        <v>1125</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45925</v>
+        <v>45929</v>
       </c>
       <c r="B83" t="n">
-        <v>1119</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="B84" t="n">
-        <v>1110</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45929</v>
+        <v>45931</v>
       </c>
       <c r="B85" t="n">
-        <v>1106</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45930</v>
+        <v>45932</v>
       </c>
       <c r="B86" t="n">
-        <v>1107</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45931</v>
+        <v>45940</v>
       </c>
       <c r="B87" t="n">
-        <v>1109</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45932</v>
+        <v>45943</v>
       </c>
       <c r="B88" t="n">
-        <v>1114</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45940</v>
+        <v>45944</v>
       </c>
       <c r="B89" t="n">
-        <v>1224</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45943</v>
+        <v>45945</v>
       </c>
       <c r="B90" t="n">
-        <v>1288</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45944</v>
+        <v>45946</v>
       </c>
       <c r="B91" t="n">
-        <v>1504</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45945</v>
+        <v>45947</v>
       </c>
       <c r="B92" t="n">
-        <v>1365</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45946</v>
+        <v>45950</v>
       </c>
       <c r="B93" t="n">
-        <v>1323</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45947</v>
+        <v>45951</v>
       </c>
       <c r="B94" t="n">
-        <v>1345</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45950</v>
+        <v>45952</v>
       </c>
       <c r="B95" t="n">
-        <v>1291</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45951</v>
+        <v>45953</v>
       </c>
       <c r="B96" t="n">
-        <v>1315</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45952</v>
+        <v>45954</v>
       </c>
       <c r="B97" t="n">
-        <v>1467</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45953</v>
+        <v>45957</v>
       </c>
       <c r="B98" t="n">
-        <v>1594</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45954</v>
+        <v>45958</v>
       </c>
       <c r="B99" t="n">
-        <v>1662</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B100" t="n">
-        <v>1514</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45958</v>
+        <v>45960</v>
       </c>
       <c r="B101" t="n">
-        <v>1515</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/list_7_r.xlsx
+++ b/list_7_r.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1241,7 +1241,7 @@
         <v>45959</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>536</v>
       </c>
     </row>
     <row r="101">
@@ -1249,6 +1249,14 @@
         <v>45960</v>
       </c>
       <c r="B101" t="n">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1263,7 +1271,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2072,7 +2080,7 @@
         <v>45959</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>5994</v>
       </c>
     </row>
     <row r="101">
@@ -2080,6 +2088,14 @@
         <v>45960</v>
       </c>
       <c r="B101" t="n">
+        <v>5787</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2094,7 +2110,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2903,7 +2919,7 @@
         <v>45959</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="101">
@@ -2911,6 +2927,14 @@
         <v>45960</v>
       </c>
       <c r="B101" t="n">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2925,7 +2949,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3734,7 +3758,7 @@
         <v>45959</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="101">
@@ -3742,6 +3766,14 @@
         <v>45960</v>
       </c>
       <c r="B101" t="n">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B102" t="n">
         <v>0</v>
       </c>
     </row>

--- a/list_7_r.xlsx
+++ b/list_7_r.xlsx
@@ -1257,7 +1257,7 @@
         <v>45961</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>529</v>
       </c>
     </row>
   </sheetData>
@@ -2096,7 +2096,7 @@
         <v>45961</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>5753</v>
       </c>
     </row>
   </sheetData>
@@ -2935,7 +2935,7 @@
         <v>45961</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>2565</v>
       </c>
     </row>
   </sheetData>
@@ -3774,7 +3774,7 @@
         <v>45961</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>1351</v>
       </c>
     </row>
   </sheetData>
